--- a/species_table_total.xlsx
+++ b/species_table_total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{C1A035CF-C4EE-46A6-9BB0-0F781915FE06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5A6D52E4-BAEE-4A5B-8907-891EC666670B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{CB61CBB6-F72A-42C7-90AD-3301B46EEB09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9E96C5F8-1644-4874-9A84-7603414705D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
   <si>
     <t>Species</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>woody</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>gained</t>
+  </si>
+  <si>
+    <t>Unknown (Not identified to species)</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Non-native</t>
   </si>
 </sst>
 </file>
@@ -425,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,24 +626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,23 +819,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -843,9 +834,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,21 +845,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,7 +1247,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2942,1023 +2959,963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="2" max="4" width="6.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31">
         <v>1979</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="31">
         <v>1999</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="31">
         <v>2019</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0.219512195121951</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.12195121951219499</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="24">
         <v>0.28048780487804897</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="24">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="24">
         <v>8.1081081081081099E-2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
-        <f>((B2-D2)/B2)*-100</f>
-        <v>-71.092831962397199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B4" s="22">
         <v>0.58536585365853699</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="22">
         <v>0.439024390243902</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="22">
         <v>0.24324324324324301</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
-        <f>((B3-D3)/B3)*-100</f>
-        <v>-58.445945945946022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="25">
         <v>1.6341463414634101</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="25">
         <v>1.5365853658536599</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="25">
         <v>1.1081081081081099</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
-        <f>((B4-D4)/B4)*-100</f>
-        <v>-32.190399354578162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B6" s="22">
         <v>0.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C6" s="22">
         <v>0.58536585365853699</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D6" s="22">
         <v>0.48648648648648701</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
-        <f>((B5-D5)/B5)*-100</f>
-        <v>-2.7027027027025974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="25">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
-        <f>((B6-D6)/B6)*-100</f>
-        <v>121.62162162162203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B8" s="22">
         <v>0.19512195121951201</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="22">
         <v>0.59756097560975596</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="22">
         <v>0.87837837837837796</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
-        <f>((B7-D7)/B7)*-100</f>
-        <v>350.16891891891913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="25">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="25">
         <v>7.3170731707317097E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="25">
         <v>0.29729729729729698</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
-        <f>((B8-D8)/B8)*-100</f>
-        <v>1118.9189189189187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="22">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
         <v>0.18292682926829301</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="25">
         <v>0.22972972972972999</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
         <v>6.7567567567567599E-2</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="26">
-        <v>0.219512195121951</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.12195121951219499</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28">
-        <f>((B12-D12)/B12)*-100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B14" s="22">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="11">
-        <f>((B13-D13)/B13)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.36585365853658502</v>
-      </c>
-      <c r="C14" s="9">
-        <v>8.5365853658536606E-2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="16">
-        <f>((B14-D14)/B14)*-100</f>
-        <v>-100</v>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2.4390243902439001E-2</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="11">
-        <f>((B15-D15)/B15)*-100</f>
-        <v>-100</v>
+      <c r="A15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="C15" s="25">
+        <v>8.5365853658536606E-2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="22">
+        <v>2.4390243902439001E-2</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="25">
         <v>0.26829268292682901</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="25">
         <v>0.134146341463415</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="16">
-        <f>((B16-D16)/B16)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="24">
         <v>0.18292682926829301</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="24">
         <v>0.24390243902438999</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="11">
-        <f>((B17-D17)/B17)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B19" s="22">
         <v>0.134146341463415</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="22">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="16">
-        <f>((B18-D18)/B18)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="9">
-        <v>4.8780487804878099E-2</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="11">
-        <f>((B19-D19)/B19)*-100</f>
-        <v>-100</v>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.292682926829268</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="16">
-        <f>((B20-D20)/B20)*-100</f>
-        <v>-100</v>
+      <c r="A20" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="25">
+        <v>4.8780487804878099E-2</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B22" s="25">
         <v>0.60975609756097604</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="25">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="13">
-        <f>((B21-D21)/B21)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.134146341463415</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="16">
-        <f>((B22-D22)/B22)*-100</f>
-        <v>-100</v>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.134146341463415</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B24" s="22">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="11">
-        <f>((B23-D23)/B23)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="25">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="16">
-        <f>((B24-D24)/B24)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B26" s="22">
         <v>0.439024390243902</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C26" s="22">
         <v>0.17073170731707299</v>
       </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="11">
-        <f>((B25-D25)/B25)*-100</f>
-        <v>-100</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0.90243902439024404</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0.39024390243902402</v>
-      </c>
-      <c r="D26" s="9">
-        <v>5.4054054054054099E-2</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="16">
-        <f>((B26-D26)/B26)*-100</f>
-        <v>-94.010226442658876</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="D27" s="25">
+        <v>5.4054054054054099E-2</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B28" s="24">
         <v>0.12195121951219499</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="24">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="24">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="11">
-        <f>((B27-D27)/B27)*-100</f>
-        <v>-88.918918918918919</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B29" s="22">
         <v>0.90243902439024404</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C29" s="22">
         <v>0.62195121951219501</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="22">
         <v>0.121621621621622</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="16">
-        <f>((B28-D28)/B28)*-100</f>
-        <v>-86.523009495982421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B30" s="25">
         <v>0.63414634146341498</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="25">
         <v>0.292682926829268</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="25">
         <v>9.45945945945946E-2</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="11">
-        <f>((B29-D29)/B29)*-100</f>
-        <v>-85.083160083160081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B31" s="22">
         <v>0.292682926829268</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C31" s="22">
         <v>0.15853658536585399</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="22">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="16">
-        <f>((B30-D30)/B30)*-100</f>
-        <v>-81.531531531531499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="9">
-        <v>0.18292682926829301</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0.134146341463415</v>
-      </c>
-      <c r="D31" s="9">
-        <v>4.0540540540540501E-2</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="13">
-        <f>((B31-D31)/B31)*-100</f>
-        <v>-77.837837837837881</v>
+      <c r="E31" s="17"/>
+      <c r="F31" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.18292682926829301</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.134146341463415</v>
+      </c>
+      <c r="D32" s="25">
+        <v>4.0540540540540501E-2</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="24">
         <v>0.353658536585366</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="24">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="24">
         <v>8.1081081081081099E-2</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="16">
-        <f>((B32-D32)/B32)*-100</f>
-        <v>-77.073625349487429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B34" s="22">
         <v>0.46341463414634099</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C34" s="22">
         <v>0.292682926829268</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="22">
         <v>0.135135135135135</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="11">
-        <f>((B33-D33)/B33)*-100</f>
-        <v>-70.839260312944532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B35" s="25">
         <v>0.81707317073170704</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="25">
         <v>0.439024390243902</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="25">
         <v>0.29729729729729698</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="16">
-        <f>((B34-D34)/B34)*-100</f>
-        <v>-63.614360629286026</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B36" s="22">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="11">
-        <f>((B35-D35)/B35)*-100</f>
-        <v>-55.675675675675748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="9">
-        <v>0.439024390243902</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0.219512195121951</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.21621621621621601</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="16">
-        <f>((B36-D36)/B36)*-100</f>
-        <v>-50.750750750750754</v>
+      <c r="E36" s="17"/>
+      <c r="F36" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.219512195121951</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.21621621621621601</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B38" s="24">
         <v>0.24390243902438999</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C38" s="24">
         <v>0.109756097560976</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="24">
         <v>0.121621621621622</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="11">
-        <f>((B37-D37)/B37)*-100</f>
-        <v>-50.135135135134924</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B39" s="22">
         <v>1.6097560975609799</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C39" s="22">
         <v>1.7926829268292701</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="22">
         <v>1.13513513513514</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="16">
-        <f>((B38-D38)/B38)*-100</f>
-        <v>-29.484029484029371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B40" s="25">
         <v>1.68292682926829</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="25">
         <v>1.4634146341463401</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="25">
         <v>1.21621621621622</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="11">
-        <f>((B39-D39)/B39)*-100</f>
-        <v>-27.732079905992606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B41" s="22">
         <v>0.48780487804877998</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C41" s="22">
         <v>0.34146341463414598</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="22">
         <v>0.36486486486486502</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="16">
-        <f>((B40-D40)/B40)*-100</f>
-        <v>-25.202702702702588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0.19512195121951201</v>
-      </c>
-      <c r="C41" s="9">
-        <v>0.109756097560976</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0.162162162162162</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="13">
-        <f>((B41-D41)/B41)*-100</f>
-        <v>-16.891891891891891</v>
+      <c r="E41" s="17"/>
+      <c r="F41" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.19512195121951201</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.109756097560976</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0.162162162162162</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B43" s="24">
         <v>0.36585365853658502</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C43" s="24">
         <v>0.30487804878048802</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="24">
         <v>0.32432432432432401</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="16">
-        <f>((B42-D42)/B42)*-100</f>
-        <v>-11.351351351351354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="C43" s="15">
-        <v>0</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="11">
-        <f>((B43-D43)/B43)*-100</f>
-        <v>0</v>
+      <c r="E43" s="17"/>
+      <c r="F43" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="25">
         <v>0.19512195121951201</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="25">
         <v>0.18292682926829301</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="25">
         <v>0.27027027027027001</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="16">
-        <f>((B44-D44)/B44)*-100</f>
-        <v>38.513513513513516</v>
+      <c r="E44" s="17"/>
+      <c r="F44" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="22">
         <v>8.5365853658536606E-2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="22">
         <v>0.146341463414634</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="22">
         <v>0.121621621621622</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="11">
-        <f>((B45-D45)/B45)*-100</f>
-        <v>42.471042471042885</v>
+      <c r="E45" s="17"/>
+      <c r="F45" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="25">
         <v>0.353658536585366</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="25">
         <v>0.75609756097560998</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="25">
         <v>0.75675675675675702</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="16">
-        <f>((B46-D46)/B46)*-100</f>
-        <v>113.9794967381174</v>
+      <c r="E46" s="17"/>
+      <c r="F46" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="24">
         <v>0.23170731707317099</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="24">
         <v>0.19512195121951201</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="24">
         <v>0.5</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="11">
-        <f>((B47-D47)/B47)*-100</f>
-        <v>115.78947368421029</v>
+      <c r="E47" s="17"/>
+      <c r="F47" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="22">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="22">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="22">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="16">
-        <f>((B48-D48)/B48)*-100</f>
-        <v>121.62162162162163</v>
+      <c r="E48" s="17"/>
+      <c r="F48" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="25">
         <v>0.15853658536585399</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="25">
         <v>0.67073170731707299</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="25">
         <v>0.59459459459459496</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="11">
-        <f>((B49-D49)/B49)*-100</f>
-        <v>275.05197505197447</v>
+      <c r="E49" s="17"/>
+      <c r="F49" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="22">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+      <c r="D50" s="22">
         <v>0.17567567567567599</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="16">
-        <f>((B50-D50)/B50)*-100</f>
-        <v>1340.5405405405445</v>
+      <c r="E50" s="17"/>
+      <c r="F50" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="9">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9">
-        <v>0</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="B51" s="25">
+        <v>0</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0</v>
+      </c>
+      <c r="D51" s="25">
         <v>0.59459459459459496</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="13" t="s">
-        <v>76</v>
+      <c r="E51" s="17"/>
+      <c r="F51" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G51" t="s">
         <v>82</v>
@@ -3971,18 +3928,18 @@
       <c r="A52" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="B52" s="24">
+        <v>0</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="16" t="s">
-        <v>76</v>
+      <c r="E52" s="17"/>
+      <c r="F52" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G52" t="s">
         <v>83</v>
@@ -3992,21 +3949,21 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="15">
-        <v>0</v>
-      </c>
-      <c r="C53" s="15">
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="B53" s="22">
+        <v>0</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+      <c r="D53" s="22">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="16" t="s">
-        <v>76</v>
+      <c r="E53" s="17"/>
+      <c r="F53" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G53" t="s">
         <v>81</v>
@@ -4016,21 +3973,21 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15">
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
+      <c r="B54" s="22">
+        <v>0</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0</v>
+      </c>
+      <c r="D54" s="22">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="11" t="s">
-        <v>76</v>
+      <c r="E54" s="17"/>
+      <c r="F54" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G54" t="s">
         <v>81</v>
@@ -4040,21 +3997,21 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="9">
-        <v>0</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="B55" s="25">
+        <v>0</v>
+      </c>
+      <c r="C55" s="25">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="25">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="16" t="s">
-        <v>76</v>
+      <c r="E55" s="17"/>
+      <c r="F55" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G55" t="s">
         <v>83</v>
@@ -4067,18 +4024,18 @@
       <c r="A56" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
+      <c r="B56" s="24">
+        <v>0</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="11" t="s">
-        <v>76</v>
+      <c r="E56" s="17"/>
+      <c r="F56" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G56" t="s">
         <v>85</v>
@@ -4088,21 +4045,21 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="15">
-        <v>0</v>
-      </c>
-      <c r="C57" s="15">
-        <v>0</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="B57" s="22">
+        <v>0</v>
+      </c>
+      <c r="C57" s="22">
+        <v>0</v>
+      </c>
+      <c r="D57" s="22">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="16" t="s">
-        <v>76</v>
+      <c r="E57" s="17"/>
+      <c r="F57" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G57" t="s">
         <v>85</v>
@@ -4112,21 +4069,21 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="9">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9">
-        <v>0</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="B58" s="25">
+        <v>0</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0</v>
+      </c>
+      <c r="D58" s="25">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="11" t="s">
-        <v>76</v>
+      <c r="E58" s="17"/>
+      <c r="F58" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G58" t="s">
         <v>81</v>
@@ -4136,163 +4093,177 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="15">
-        <v>0</v>
-      </c>
-      <c r="C59" s="15">
+      <c r="B59" s="22">
+        <v>0</v>
+      </c>
+      <c r="C59" s="22">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D59" s="15">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="16" t="s">
+      <c r="D59" s="22">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="C60" s="22">
+        <v>0</v>
+      </c>
+      <c r="D60" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="6">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B61" s="24">
+        <v>0</v>
+      </c>
+      <c r="C61" s="24">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="16" t="s">
+      <c r="D61" s="24">
+        <v>0</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B63" s="22">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="11">
-        <f t="shared" ref="F61" si="0">((B61-D61)/B61)*-100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="C63" s="22">
+        <v>0</v>
+      </c>
+      <c r="D63" s="22">
+        <v>0</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B64" s="25">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C62" s="9">
-        <v>0</v>
-      </c>
-      <c r="D62" s="9">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="16">
-        <f t="shared" ref="F62" si="1">((B62-D62)/B62)*-100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+      <c r="C64" s="25">
+        <v>0</v>
+      </c>
+      <c r="D64" s="25">
+        <v>0</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="6">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B65" s="24">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="D65" s="24">
+        <v>0</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="15">
-        <v>0</v>
-      </c>
-      <c r="C64" s="15">
+      <c r="B66" s="22">
+        <v>0</v>
+      </c>
+      <c r="C66" s="22">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D64" s="15">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="D66" s="22">
+        <v>0</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="9">
-        <v>0</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="B67" s="25">
+        <v>0</v>
+      </c>
+      <c r="C67" s="25">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D65" s="9">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="15">
-        <v>0</v>
-      </c>
-      <c r="C66" s="15">
+      <c r="B68" s="22">
+        <v>0</v>
+      </c>
+      <c r="C68" s="22">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D66" s="15">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="D68" s="22">
+        <v>0</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A12:F50">
-    <sortCondition ref="F12:F50"/>
-    <sortCondition ref="A12:A50"/>
+  <sortState ref="A15:F61">
+    <sortCondition ref="F13:F50"/>
+    <sortCondition ref="A13:A50"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E61:E66"/>
+  <mergeCells count="3">
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="E14:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4307,7 +4278,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4326,1321 +4297,1321 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.28048780487804897</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>8.1081081081081099E-2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16">
-        <f>((B2-D2)/B2)*-100</f>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F8" si="0">((B2-D2)/B2)*-100</f>
         <v>-71.092831962397199</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>0.58536585365853699</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>0.439024390243902</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>0.24324324324324301</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
-        <f>((B3-D3)/B3)*-100</f>
+      <c r="E3" s="17"/>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
         <v>-58.445945945946022</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>1.6341463414634101</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>1.5365853658536599</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>1.1081081081081099</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
-        <f>((B4-D4)/B4)*-100</f>
+      <c r="E4" s="17"/>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
         <v>-32.190399354578162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>0.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>0.58536585365853699</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0.48648648648648701</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
-        <f>((B5-D5)/B5)*-100</f>
+      <c r="E5" s="17"/>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
         <v>-2.7027027027025974</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
-        <f>((B6-D6)/B6)*-100</f>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
         <v>121.62162162162203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>0.19512195121951201</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>0.59756097560975596</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>0.87837837837837796</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
-        <f>((B7-D7)/B7)*-100</f>
+      <c r="E7" s="17"/>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
         <v>350.16891891891913</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>7.3170731707317097E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>0.29729729729729698</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
-        <f>((B8-D8)/B8)*-100</f>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
         <v>1118.9189189189187</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.18292682926829301</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>0.22972972972972999</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
         <v>6.7567567567567599E-2</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.219512195121951</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.12195121951219499</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="16">
-        <f>((B12-D12)/B12)*-100</f>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F50" si="1">((B12-D12)/B12)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="11">
-        <f>((B13-D13)/B13)*-100</f>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>0.36585365853658502</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>8.5365853658536606E-2</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="16">
-        <f>((B14-D14)/B14)*-100</f>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11">
-        <f>((B15-D15)/B15)*-100</f>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>0.26829268292682901</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>0.134146341463415</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="16">
-        <f>((B16-D16)/B16)*-100</f>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="11">
-        <f>((B17-D17)/B17)*-100</f>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>0.18292682926829301</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>0.24390243902438999</v>
       </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="16">
-        <f>((B18-D18)/B18)*-100</f>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>0.134146341463415</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11">
-        <f>((B19-D19)/B19)*-100</f>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>4.8780487804878099E-2</v>
       </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="16">
-        <f>((B20-D20)/B20)*-100</f>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>0.292682926829268</v>
       </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13">
-        <f>((B21-D21)/B21)*-100</f>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>0.60975609756097604</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="16">
-        <f>((B22-D22)/B22)*-100</f>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>0.134146341463415</v>
       </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="11">
-        <f>((B23-D23)/B23)*-100</f>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="16">
-        <f>((B24-D24)/B24)*-100</f>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="11">
-        <f>((B25-D25)/B25)*-100</f>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>0.439024390243902</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>0.17073170731707299</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="16">
-        <f>((B26-D26)/B26)*-100</f>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="12">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>0.90243902439024404</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>0.39024390243902402</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="11">
-        <f>((B27-D27)/B27)*-100</f>
+      <c r="E27" s="19"/>
+      <c r="F27" s="8">
+        <f t="shared" si="1"/>
         <v>-94.010226442658876</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <v>0.12195121951219499</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="11">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="16">
-        <f>((B28-D28)/B28)*-100</f>
+      <c r="E28" s="19"/>
+      <c r="F28" s="12">
+        <f t="shared" si="1"/>
         <v>-88.918918918918919</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>0.90243902439024404</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>0.62195121951219501</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>0.121621621621622</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="11">
-        <f>((B29-D29)/B29)*-100</f>
+      <c r="E29" s="19"/>
+      <c r="F29" s="8">
+        <f t="shared" si="1"/>
         <v>-86.523009495982421</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <v>0.63414634146341498</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>0.292682926829268</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="11">
         <v>9.45945945945946E-2</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="16">
-        <f>((B30-D30)/B30)*-100</f>
+      <c r="E30" s="19"/>
+      <c r="F30" s="12">
+        <f t="shared" si="1"/>
         <v>-85.083160083160081</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="6">
         <v>0.292682926829268</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>0.15853658536585399</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="13">
-        <f>((B31-D31)/B31)*-100</f>
+      <c r="E31" s="19"/>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
         <v>-81.531531531531499</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>0.18292682926829301</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>0.134146341463415</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>4.0540540540540501E-2</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="16">
-        <f>((B32-D32)/B32)*-100</f>
+      <c r="E32" s="19"/>
+      <c r="F32" s="12">
+        <f t="shared" si="1"/>
         <v>-77.837837837837881</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>0.353658536585366</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="11">
         <v>8.1081081081081099E-2</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="11">
-        <f>((B33-D33)/B33)*-100</f>
+      <c r="E33" s="19"/>
+      <c r="F33" s="8">
+        <f t="shared" si="1"/>
         <v>-77.073625349487429</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>0.46341463414634099</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>0.292682926829268</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>0.135135135135135</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="16">
-        <f>((B34-D34)/B34)*-100</f>
+      <c r="E34" s="19"/>
+      <c r="F34" s="12">
+        <f t="shared" si="1"/>
         <v>-70.839260312944532</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="11">
         <v>0.81707317073170704</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="11">
         <v>0.439024390243902</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="11">
         <v>0.29729729729729698</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="11">
-        <f>((B35-D35)/B35)*-100</f>
+      <c r="E35" s="19"/>
+      <c r="F35" s="8">
+        <f t="shared" si="1"/>
         <v>-63.614360629286026</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="16">
-        <f>((B36-D36)/B36)*-100</f>
+      <c r="E36" s="19"/>
+      <c r="F36" s="12">
+        <f t="shared" si="1"/>
         <v>-55.675675675675748</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>0.439024390243902</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0.219512195121951</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>0.21621621621621601</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="11">
-        <f>((B37-D37)/B37)*-100</f>
+      <c r="E37" s="19"/>
+      <c r="F37" s="8">
+        <f t="shared" si="1"/>
         <v>-50.750750750750754</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="11">
         <v>0.24390243902438999</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="11">
         <v>0.109756097560976</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="11">
         <v>0.121621621621622</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="16">
-        <f>((B38-D38)/B38)*-100</f>
+      <c r="E38" s="19"/>
+      <c r="F38" s="12">
+        <f t="shared" si="1"/>
         <v>-50.135135135134924</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <v>1.6097560975609799</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>1.7926829268292701</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <v>1.13513513513514</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="11">
-        <f>((B39-D39)/B39)*-100</f>
+      <c r="E39" s="19"/>
+      <c r="F39" s="8">
+        <f t="shared" si="1"/>
         <v>-29.484029484029371</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="11">
         <v>1.68292682926829</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <v>1.4634146341463401</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="11">
         <v>1.21621621621622</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="16">
-        <f>((B40-D40)/B40)*-100</f>
+      <c r="E40" s="19"/>
+      <c r="F40" s="12">
+        <f t="shared" si="1"/>
         <v>-27.732079905992606</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <v>0.48780487804877998</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>0.34146341463414598</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="6">
         <v>0.36486486486486502</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="13">
-        <f>((B41-D41)/B41)*-100</f>
+      <c r="E41" s="19"/>
+      <c r="F41" s="9">
+        <f t="shared" si="1"/>
         <v>-25.202702702702588</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>0.19512195121951201</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>0.109756097560976</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>0.162162162162162</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="16">
-        <f>((B42-D42)/B42)*-100</f>
+      <c r="E42" s="19"/>
+      <c r="F42" s="12">
+        <f t="shared" si="1"/>
         <v>-16.891891891891891</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="11">
         <v>0.36585365853658502</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>0.30487804878048802</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="11">
         <v>0.32432432432432401</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="11">
-        <f>((B43-D43)/B43)*-100</f>
+      <c r="E43" s="19"/>
+      <c r="F43" s="8">
+        <f t="shared" si="1"/>
         <v>-11.351351351351354</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <v>0.19512195121951201</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <v>0.18292682926829301</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <v>0.27027027027027001</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="16">
-        <f>((B44-D44)/B44)*-100</f>
+      <c r="E44" s="19"/>
+      <c r="F44" s="12">
+        <f t="shared" si="1"/>
         <v>38.513513513513516</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="11">
         <v>8.5365853658536606E-2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>0.146341463414634</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="11">
         <v>0.121621621621622</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="11">
-        <f>((B45-D45)/B45)*-100</f>
+      <c r="E45" s="19"/>
+      <c r="F45" s="8">
+        <f t="shared" si="1"/>
         <v>42.471042471042885</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>0.353658536585366</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <v>0.75609756097560998</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <v>0.75675675675675702</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="16">
-        <f>((B46-D46)/B46)*-100</f>
+      <c r="E46" s="19"/>
+      <c r="F46" s="12">
+        <f t="shared" si="1"/>
         <v>113.9794967381174</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>0.23170731707317099</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>0.19512195121951201</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>0.5</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="11">
-        <f>((B47-D47)/B47)*-100</f>
+      <c r="E47" s="19"/>
+      <c r="F47" s="8">
+        <f t="shared" si="1"/>
         <v>115.78947368421029</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="11">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="11">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="11">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="16">
-        <f>((B48-D48)/B48)*-100</f>
+      <c r="E48" s="19"/>
+      <c r="F48" s="12">
+        <f t="shared" si="1"/>
         <v>121.62162162162163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="6">
         <v>0.15853658536585399</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6">
         <v>0.67073170731707299</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <v>0.59459459459459496</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="11">
-        <f>((B49-D49)/B49)*-100</f>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8">
+        <f t="shared" si="1"/>
         <v>275.05197505197447</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="11">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
         <v>0.17567567567567599</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="16">
-        <f>((B50-D50)/B50)*-100</f>
+      <c r="E50" s="19"/>
+      <c r="F50" s="12">
+        <f t="shared" si="1"/>
         <v>1340.5405405405445</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="9">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9">
-        <v>0</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>0.59459459459459496</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="13" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="15">
-        <v>0</v>
-      </c>
-      <c r="C53" s="15">
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
         <v>4.0540540540540501E-2</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="11" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="9">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9">
-        <v>0</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="16" t="s">
+      <c r="E54" s="19"/>
+      <c r="F54" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="15">
-        <v>0</v>
-      </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
         <v>1.35135135135135E-2</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="11" t="s">
+      <c r="E55" s="19"/>
+      <c r="F55" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="9">
-        <v>0</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="6">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="16" t="s">
+      <c r="E56" s="19"/>
+      <c r="F56" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="11" t="s">
+      <c r="E57" s="19"/>
+      <c r="F57" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="16" t="s">
+      <c r="E58" s="19"/>
+      <c r="F58" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="9">
-        <v>0</v>
-      </c>
-      <c r="C59" s="9">
-        <v>0</v>
-      </c>
-      <c r="D59" s="9">
+      <c r="B59" s="6">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
         <v>2.7027027027027001E-2</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="11" t="s">
+      <c r="E59" s="19"/>
+      <c r="F59" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="15">
-        <v>0</v>
-      </c>
-      <c r="C60" s="15">
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D60" s="15">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="16" t="s">
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="9">
-        <v>0</v>
-      </c>
-      <c r="C61" s="9">
-        <v>0</v>
-      </c>
-      <c r="D61" s="9">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="13" t="s">
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="16" t="s">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="15">
-        <v>0</v>
-      </c>
-      <c r="C63" s="15">
-        <v>0</v>
-      </c>
-      <c r="D63" s="15">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="11" t="s">
+      <c r="B63" s="11">
+        <v>0</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="9">
-        <v>0</v>
-      </c>
-      <c r="C64" s="9">
-        <v>0</v>
-      </c>
-      <c r="D64" s="9">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="16" t="s">
+      <c r="B64" s="6">
+        <v>0</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="11">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C65" s="15">
-        <v>0</v>
-      </c>
-      <c r="D65" s="15">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="11">
-        <f t="shared" ref="F65:F127" si="0">((B65-D65)/B65)*-100</f>
+      <c r="F65" s="8">
+        <f t="shared" ref="F65:F66" si="2">((B65-D65)/B65)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="6">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="C66" s="9">
-        <v>0</v>
-      </c>
-      <c r="D66" s="9">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="16">
-        <f t="shared" si="0"/>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="12">
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6">
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="11" t="s">
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="15">
-        <v>0</v>
-      </c>
-      <c r="C68" s="15">
+      <c r="B68" s="11">
+        <v>0</v>
+      </c>
+      <c r="C68" s="11">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="D68" s="15">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="16" t="s">
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="9">
-        <v>0</v>
-      </c>
-      <c r="C69" s="9">
+      <c r="B69" s="6">
+        <v>0</v>
+      </c>
+      <c r="C69" s="6">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="D69" s="9">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="11" t="s">
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="15">
-        <v>0</v>
-      </c>
-      <c r="C70" s="15">
+      <c r="B70" s="11">
+        <v>0</v>
+      </c>
+      <c r="C70" s="11">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="D70" s="15">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="16" t="s">
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="9">
-        <v>0</v>
-      </c>
-      <c r="C71" s="9">
-        <v>0</v>
-      </c>
-      <c r="D71" s="9">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="13" t="s">
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5655,6 +5626,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -5883,22 +5869,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E0F7AF-310A-4740-9156-C652FBBADD43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38936743-6556-44DF-82A1-0B64CA0DF94F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35AA433-3C19-4980-A596-2EA9C7F67F8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5915,29 +5911,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38936743-6556-44DF-82A1-0B64CA0DF94F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E0F7AF-310A-4740-9156-C652FBBADD43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>